--- a/ОДиМТР/Семинар 3. Выбросы и пропуски.xlsx
+++ b/ОДиМТР/Семинар 3. Выбросы и пропуски.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\ОДиМТР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519CFA6F-34E5-411B-8804-97850B66F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA730E9-1959-44E5-A643-631743302923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,16 @@
     <sheet name="Аэрофлот_1week_20022020_2002202" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Аэрофлот_1week_20022020_2002202!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Аэрофлот_1week_20022020_2002202!$B$2:$B$260</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Аэрофлот_1week_20022020_2002202!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Аэрофлот_1week_20022020_2002202!$F$2:$F$260</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Аэрофлот_1week_20022020_2002202!$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Аэрофлот_1week_20022020_2002202!$G$2:$G$260</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Аэрофлот_1week_20022020_2002202!$F$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Аэрофлот_1week_20022020_2002202!$F$2:$F$260</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Аэрофлот_1week_20022020_2002202!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Аэрофлот_1week_20022020_2002202!$C$2:$C$260</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Аэрофлот_1week_20022020_2002202!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Аэрофлот_1week_20022020_2002202!$B$2:$B$260</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Аэрофлот_1week_20022020_2002202!$D$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Аэрофлот_1week_20022020_2002202!$D$2:$D$260</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Аэрофлот_1week_20022020_2002202!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Аэрофлот_1week_20022020_2002202!$C$2:$C$260</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Аэрофлот_1week_20022020_2002202!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Аэрофлот_1week_20022020_2002202!$G$2:$G$260</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Аэрофлот_1week_20022020_2002202!$E$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Аэрофлот_1week_20022020_2002202!$E$2:$E$260</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Аэрофлот_1week_20022020_2002202!$A$1:$C$260</definedName>
@@ -9119,7 +9119,1057 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аэрофлот_1week_20022020_2002202!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Цена Аэрофлота</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Аэрофлот_1week_20022020_2002202!$W$2:$W$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="259"/>
+                <c:pt idx="0">
+                  <c:v>115.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66.28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66.48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.86</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69.94</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71.44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73.58</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69.98</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>68.58</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>66.78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66.94</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>67.16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>66.86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>68.64</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>66.98</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70.98</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>69.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68.48</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>68.42</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65.98</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>66.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60.98</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>62.26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60.04</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>58.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59.16</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>59.86</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56.56</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>55.54</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56.18</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>36.74</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.94</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>32.96</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>30.62</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>29.26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29.32</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.74</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>26.82</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.74</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>26.16</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28.24</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>29.18</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26.08</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>22.44</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>23.48</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>24.42</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>25.64</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>25.62</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24.82</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>24.22</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.68</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>27.85</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>28.82</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>28.16</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>28.16</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>28.45</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>29.61</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>32.79</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>38.97</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>40.24</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>37.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>38.24</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>38.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>40.15</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>40.06</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43.38</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>40.71</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41.43</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42.39</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44.84</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45.29</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45.84</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44.91</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44.34</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44.01</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>41.63</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>40.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>40.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>40.93</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>40.26</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>38.97</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>39.19</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>38.54</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>38.51</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>36.51</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>35.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>36.28</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>35.97</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>35.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>36.85</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>38.01</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>38.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>37.17</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>39.81</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>39.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>38.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>39.54</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>40.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>39.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>45.48</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49.36</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>50.47</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>49.61</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>50.25</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>50.85</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>58.13</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>55.23</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>58.51</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>62.82</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>63.97</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>62.72</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>58.45</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56.29</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>55.47</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>53.78</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>51.09</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.16</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>46.45</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>47.12</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>48.42</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.01</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>52.83</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>54.57</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>53.18</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>54.88</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>55.99</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>60.73</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>63.86</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>58.82</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>52.15</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>50.86</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>48.28</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>54.95</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>58.38</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>58.13</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>60.99</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>61.86</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>63.86</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>64.25</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>68.94</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>75.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE08-48C5-820A-DDDEBB7F2E64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1678074624"/>
+        <c:axId val="1678072704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1678074624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Неделя</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1678072704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1678072704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Цена акции,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> руб.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1678074624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9167,7 +10217,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9205,7 +10255,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A8B5E7FC-5A16-4E2D-A39A-14AD600C09B7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Цена Аэрофлота</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9263,7 +10313,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9301,7 +10351,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9BC6624E-0265-4240-898C-BED9A5B86A03}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Объем Аэрофлота</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9551,7 +10601,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9589,7 +10639,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5F6FBA78-1CE4-4D24-8CBC-73AD95DC4274}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Цена Сбербанка</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9647,7 +10697,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9685,7 +10735,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7D45BADE-9D2B-4BF2-B4AE-B485B13009AC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Объем Сбербанка</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9819,6 +10869,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11210,6 +12300,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16548,6 +18154,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E5503B-BB5D-5A24-FC03-08D5A446FDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16951,8 +18593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1049545A-3870-49D8-A621-1142C4B2A093}">
   <dimension ref="A1:Y260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T40" workbookViewId="0">
-      <selection activeCell="X57" sqref="X57"/>
+    <sheetView tabSelected="1" topLeftCell="U52" workbookViewId="0">
+      <selection activeCell="AB71" sqref="AB71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17897,9 +19539,6 @@
       <c r="V24">
         <v>23</v>
       </c>
-      <c r="W24">
-        <v>88.36</v>
-      </c>
       <c r="X24">
         <v>185.45</v>
       </c>
@@ -17936,9 +19575,6 @@
       <c r="V25">
         <v>24</v>
       </c>
-      <c r="W25">
-        <v>83.2</v>
-      </c>
       <c r="X25">
         <v>182.59</v>
       </c>
@@ -17975,9 +19611,6 @@
       <c r="V26">
         <v>25</v>
       </c>
-      <c r="W26">
-        <v>81.48</v>
-      </c>
       <c r="X26">
         <v>187.23</v>
       </c>
@@ -18014,9 +19647,6 @@
       <c r="V27">
         <v>26</v>
       </c>
-      <c r="W27">
-        <v>86.1</v>
-      </c>
       <c r="X27">
         <v>192.83</v>
       </c>
@@ -18053,9 +19683,6 @@
       <c r="V28">
         <v>27</v>
       </c>
-      <c r="W28">
-        <v>83.12</v>
-      </c>
       <c r="X28">
         <v>184.51</v>
       </c>
@@ -18092,9 +19719,6 @@
       <c r="V29">
         <v>28</v>
       </c>
-      <c r="W29">
-        <v>82.24</v>
-      </c>
       <c r="X29">
         <v>182.9</v>
       </c>
@@ -18131,9 +19755,6 @@
       <c r="V30">
         <v>29</v>
       </c>
-      <c r="W30">
-        <v>81.8</v>
-      </c>
       <c r="X30">
         <v>179.55</v>
       </c>
@@ -18170,9 +19791,6 @@
       <c r="V31">
         <v>30</v>
       </c>
-      <c r="W31">
-        <v>81.72</v>
-      </c>
       <c r="X31">
         <v>178.05</v>
       </c>
@@ -18209,9 +19827,6 @@
       <c r="V32">
         <v>31</v>
       </c>
-      <c r="W32">
-        <v>81.78</v>
-      </c>
       <c r="X32">
         <v>181.52</v>
       </c>
@@ -18248,9 +19863,6 @@
       <c r="V33">
         <v>32</v>
       </c>
-      <c r="W33">
-        <v>74.180000000000007</v>
-      </c>
       <c r="X33">
         <v>173.77</v>
       </c>
@@ -18287,9 +19899,6 @@
       <c r="V34">
         <v>33</v>
       </c>
-      <c r="W34">
-        <v>69</v>
-      </c>
       <c r="X34">
         <v>169.47</v>
       </c>
@@ -18326,9 +19935,6 @@
       <c r="V35">
         <v>34</v>
       </c>
-      <c r="W35">
-        <v>60.26</v>
-      </c>
       <c r="X35">
         <v>166.97</v>
       </c>
@@ -18365,9 +19971,6 @@
       <c r="V36">
         <v>35</v>
       </c>
-      <c r="W36">
-        <v>58.2</v>
-      </c>
       <c r="X36">
         <v>163.98</v>
       </c>
@@ -18404,9 +20007,6 @@
       <c r="V37">
         <v>36</v>
       </c>
-      <c r="W37">
-        <v>59.82</v>
-      </c>
       <c r="X37">
         <v>164.96</v>
       </c>
@@ -18443,9 +20043,6 @@
       <c r="V38">
         <v>37</v>
       </c>
-      <c r="W38">
-        <v>57.3</v>
-      </c>
       <c r="X38">
         <v>154.28</v>
       </c>
@@ -18482,9 +20079,6 @@
       <c r="V39">
         <v>38</v>
       </c>
-      <c r="W39">
-        <v>59.66</v>
-      </c>
       <c r="X39">
         <v>164.92</v>
       </c>
@@ -18521,9 +20115,6 @@
       <c r="V40">
         <v>39</v>
       </c>
-      <c r="W40">
-        <v>67.3</v>
-      </c>
       <c r="X40">
         <v>180.3</v>
       </c>
@@ -18560,9 +20151,6 @@
       <c r="V41">
         <v>40</v>
       </c>
-      <c r="W41">
-        <v>68.98</v>
-      </c>
       <c r="X41">
         <v>183.21</v>
       </c>
@@ -18599,9 +20187,6 @@
       <c r="V42">
         <v>41</v>
       </c>
-      <c r="W42">
-        <v>72</v>
-      </c>
       <c r="X42">
         <v>185.9</v>
       </c>
@@ -18638,9 +20223,6 @@
       <c r="V43">
         <v>42</v>
       </c>
-      <c r="W43">
-        <v>74.14</v>
-      </c>
       <c r="X43">
         <v>188.79</v>
       </c>
@@ -18677,9 +20259,6 @@
       <c r="V44">
         <v>43</v>
       </c>
-      <c r="W44">
-        <v>71.760000000000005</v>
-      </c>
       <c r="X44">
         <v>201.5</v>
       </c>
@@ -18716,9 +20295,6 @@
       <c r="V45">
         <v>44</v>
       </c>
-      <c r="W45">
-        <v>71.400000000000006</v>
-      </c>
       <c r="X45">
         <v>212.69</v>
       </c>
@@ -18755,9 +20331,6 @@
       <c r="V46">
         <v>45</v>
       </c>
-      <c r="W46">
-        <v>69.14</v>
-      </c>
       <c r="X46">
         <v>205.03</v>
       </c>
@@ -18794,9 +20367,6 @@
       <c r="V47">
         <v>46</v>
       </c>
-      <c r="W47">
-        <v>71.44</v>
-      </c>
       <c r="X47">
         <v>212.98</v>
       </c>
@@ -18833,9 +20403,6 @@
       <c r="V48">
         <v>47</v>
       </c>
-      <c r="W48">
-        <v>73.58</v>
-      </c>
       <c r="X48">
         <v>225.49</v>
       </c>
@@ -18872,9 +20439,6 @@
       <c r="V49">
         <v>48</v>
       </c>
-      <c r="W49">
-        <v>72.3</v>
-      </c>
       <c r="X49">
         <v>226.5</v>
       </c>
@@ -18911,9 +20475,6 @@
       <c r="V50">
         <v>49</v>
       </c>
-      <c r="W50">
-        <v>71.84</v>
-      </c>
       <c r="X50">
         <v>215.49</v>
       </c>
@@ -18950,9 +20511,6 @@
       <c r="V51">
         <v>50</v>
       </c>
-      <c r="W51">
-        <v>69.88</v>
-      </c>
       <c r="X51">
         <v>212.83</v>
       </c>
@@ -18989,9 +20547,6 @@
       <c r="V52">
         <v>51</v>
       </c>
-      <c r="W52">
-        <v>70.819999999999993</v>
-      </c>
       <c r="X52">
         <v>222.01</v>
       </c>
@@ -19028,9 +20583,6 @@
       <c r="V53">
         <v>52</v>
       </c>
-      <c r="W53">
-        <v>69.28</v>
-      </c>
       <c r="X53">
         <v>226.71</v>
       </c>
@@ -19067,9 +20619,6 @@
       <c r="V54">
         <v>53</v>
       </c>
-      <c r="W54">
-        <v>69.14</v>
-      </c>
       <c r="X54">
         <v>225.84</v>
       </c>
@@ -19106,9 +20655,6 @@
       <c r="V55">
         <v>54</v>
       </c>
-      <c r="W55">
-        <v>69.66</v>
-      </c>
       <c r="X55">
         <v>217.56</v>
       </c>
@@ -19145,9 +20691,6 @@
       <c r="V56">
         <v>55</v>
       </c>
-      <c r="W56">
-        <v>69.28</v>
-      </c>
       <c r="X56">
         <f>(X3-X2)/(W3-W2) *(W3-W2)+X2</f>
         <v>202.65</v>
@@ -19185,9 +20728,6 @@
       <c r="V57">
         <v>56</v>
       </c>
-      <c r="W57">
-        <v>69.86</v>
-      </c>
       <c r="Y57">
         <v>284.93</v>
       </c>
@@ -19220,9 +20760,6 @@
       </c>
       <c r="V58">
         <v>57</v>
-      </c>
-      <c r="W58">
-        <v>69.8</v>
       </c>
       <c r="Y58">
         <v>285.47000000000003</v>
